--- a/data/trans_bre/P23_7_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_7_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>7,31</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,24</t>
+          <t>6,05</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,5%</t>
+          <t>14,37</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,31%</t>
+          <t>141,87%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>180,08%</t>
+          <t>18,36%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>160,03%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1080,25%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,91; 6,62</t>
+          <t>-3,21; 20,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 8,23</t>
+          <t>-11,74; 11,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 13,49</t>
+          <t>-3,48; 15,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-65,21; 127,23</t>
+          <t>5,17; 27,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-60,65; 206,13</t>
+          <t>-53,42; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-27,3; 1076,95</t>
+          <t>-77,57; 471,94</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-74,85; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,93</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,9</t>
+          <t>-3,05</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>75,68%</t>
+          <t>-4,64</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-27,54%</t>
+          <t>88,27%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>-39,51%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>19,79%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-41,32%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 7,97</t>
+          <t>-1,7; 8,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 2,93</t>
+          <t>-15,4; 2,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 4,66</t>
+          <t>-5,43; 6,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,74; 231,57</t>
+          <t>-23,72; 3,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-73,03; 103,98</t>
+          <t>-35,74; 575,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-54,82; 127,95</t>
+          <t>-88,83; 107,95</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-58,21; 214,19</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-89,05; 77,3</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>-3,77</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>32,44%</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-21,93%</t>
+          <t>161,23%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>59,85%</t>
+          <t>-61,46%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>5,51%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-16,88%</t>
         </is>
       </c>
     </row>
@@ -802,39 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 3,61</t>
+          <t>-0,9; 5,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 2,91</t>
+          <t>-17,06; 1,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 5,61</t>
+          <t>-5,21; 4,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-72,9; 391,0</t>
+          <t>-7,96; 3,97</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-79,72; 160,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-35,32; 304,19</t>
+          <t>-100,0; 61,88</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-73,8; 229,77</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-64,19; 79,51</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>42,75%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-17,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>42,28%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 4,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 1,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 4,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,78; 133,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-58,88; 44,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,04; 142,85</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3,23</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-2,79</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,45</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-0,1</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>105,47%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-38,3%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>28,75%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-1,17%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0,16; 6,42</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-10,76; 1,22</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-2,38; 4,95</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-8,78; 4,81</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-1,83; 336,83</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-76,58; 35,34</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-34,93; 156,68</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-62,44; 99,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P23_7_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_7_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,193 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>7,31</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,6</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>6,05</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>14,37</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>141,87%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>18,36%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>160,03%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>1080,25%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>7.28936816599772</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.303836873332749</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>5.984009115550629</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>14.8800579852879</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>1.466252500050016</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.1431130764496016</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>1.621176837844599</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>11.71103040541806</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-3,21; 20,39</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-11,74; 11,78</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-3,48; 15,94</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>5,17; 27,64</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-53,42; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-77,57; 471,94</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-74,85; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-3.032717698911877</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-12.72240324332001</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-3.437930559043799</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>5.560404971487096</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.5692994130139919</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.8132240594534479</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.7698117059331293</v>
+      </c>
+      <c r="J5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>19.95247665708535</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>12.11818133696001</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>16.01004062373132</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>29.67775185636417</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>14.48225723896399</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>4.18768355344841</v>
+      </c>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,37</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-3,05</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,17</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-4,64</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>88,27%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-39,51%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>19,79%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-41,32%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-1,7; 8,7</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-15,4; 2,9</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-5,43; 6,35</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-23,72; 3,05</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-35,74; 575,22</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-88,83; 107,95</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-58,21; 214,19</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-89,05; 77,3</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>4.661437310124972</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-1.679563255158134</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>1.633822528634788</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-4.500451632519287</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>1.259716292614605</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.2423921461494696</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.2896552868318081</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.4036191882136404</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,08</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-3,77</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,24</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-1,44</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>161,23%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-61,46%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>5,51%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-16,88%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.2796462836245474</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-12.79409281302589</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-4.658969987587555</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-23.22245499981679</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.2514453997511595</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.8782253392953233</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.5596537854019321</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.886011631684985</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-0,9; 5,96</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-17,06; 1,15</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-5,21; 4,41</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-7,96; 3,97</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 61,88</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-73,8; 229,77</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-64,19; 79,51</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>11.94151332666882</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>3.902287921090249</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>6.995607344217413</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>3.230910847265455</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>7.467032185335164</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1.474432539875925</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>2.446128928097544</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.8248234816341978</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +821,207 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>2.554322741539582</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-3.901515400771732</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.4418716529281566</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-1.688975613053105</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>2.240291530052377</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.6166624537931851</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.1083109895926971</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.1969216238864845</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.4764768212806684</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-17.78088250861078</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-4.897214702411648</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-8.165707713206093</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.7122421118865424</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.6614946175115007</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>6.548101089527428</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.253093531156743</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>4.46725559227397</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>3.815931684816656</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="n">
+        <v>0.6542994682750808</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>2.453074390494147</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.7409300384323491</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>3,23</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-2,79</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,45</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-0,1</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>105,47%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-38,3%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>28,75%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-1,17%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>0,16; 6,42</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-10,76; 1,22</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-2,38; 4,95</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-8,78; 4,81</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-1,83; 336,83</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-76,58; 35,34</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-34,93; 156,68</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-62,44; 99,19</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>4.072732091026452</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-2.153158752720384</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.762136024039397</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.06019493052124431</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>1.408242648083727</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.3080654341883046</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.3655157804112663</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.006968489770600461</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.8831358306043159</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-9.140764315225242</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-2.019282095349106</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-8.862215029924718</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.1656684068378338</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.719016220936372</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.3081046450932581</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.6271658885474323</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>7.744900390049074</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.891777315800419</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>5.290090068375562</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>5.080432217902358</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>4.362916678343492</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.5373077821012067</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.716312953362662</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.9968063840001707</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
